--- a/CFRP2本_lap=30/thickness_l30_g2.0_s186.xlsx
+++ b/CFRP2本_lap=30/thickness_l30_g2.0_s186.xlsx
@@ -8,15 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jay0423/Documents/大学関連/M2/ansys/CFRP2本_lap=30/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DDF7182C-3DF9-494E-B2A7-B8F66652F98F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4FF01C21-3E1B-FC42-876F-22F85B21E0E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="500" windowWidth="16100" windowHeight="9660" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="500" windowWidth="24720" windowHeight="14760" firstSheet="2" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="C2_l30_th0.1_g2.0_s186_t1.5" sheetId="2" r:id="rId2"/>
     <sheet name="C2_l30_th0.25_g2.0_s186_t1.5" sheetId="3" r:id="rId3"/>
-    <sheet name="C2_l30_th0.5_g2.0_s186" sheetId="4" r:id="rId4"/>
+    <sheet name="C2_l30_th0.5_g2.0_s186_t1.5" sheetId="4" r:id="rId4"/>
     <sheet name="C2_l30_th0.75_g2.0_s186_t1.5" sheetId="5" r:id="rId5"/>
     <sheet name="C2_l30_th1.0_g2.0_s186_t1.5" sheetId="6" r:id="rId6"/>
     <sheet name="C2_l30_th1.25_g2.0_s186_t1.5" sheetId="7" r:id="rId7"/>
@@ -25,8 +25,8 @@
     <sheet name="まとめ" sheetId="10" r:id="rId10"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlchart.v1.0" hidden="1">'C2_l30_th0.1_g2.0_s186_t1.5'!$C$2:$C$101</definedName>
-    <definedName name="_xlchart.v1.1" hidden="1">'C2_l30_th0.1_g2.0_s186_t1.5'!$D$2:$D$101</definedName>
+    <definedName name="_xlchart.v1.0" hidden="1">'C2_l30_th1.0_g2.0_s186_t1.5'!$C$2:$C$101</definedName>
+    <definedName name="_xlchart.v1.1" hidden="1">'C2_l30_th1.0_g2.0_s186_t1.5'!$D$2:$D$101</definedName>
   </definedNames>
   <calcPr calcId="0"/>
 </workbook>
@@ -101,7 +101,7 @@
     <t>C2_l30_th0.25_g2.0_s186_t1.5</t>
   </si>
   <si>
-    <t>C2_l30_th0.5_g2.0_s186</t>
+    <t>C2_l30_th0.5_g2.0_s186_t1.5</t>
   </si>
   <si>
     <t>C2_l30_th0.75_g2.0_s186_t1.5</t>
@@ -276,11 +276,7 @@
             </a:ln>
           </c:spPr>
           <c:marker>
-            <c:spPr>
-              <a:ln>
-                <a:prstDash val="solid"/>
-              </a:ln>
-            </c:spPr>
+            <c:symbol val="none"/>
           </c:marker>
           <c:xVal>
             <c:numRef>
@@ -903,7 +899,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-218B-3349-827C-347654D501CB}"/>
+              <c16:uniqueId val="{00000000-8A49-DB44-8049-6BCF8C0CFAF0}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1027,6 +1023,7 @@
               <a:defRPr/>
             </a:pPr>
             <a:r>
+              <a:rPr lang="en-US" altLang="ja-JP"/>
               <a:t>10%</a:t>
             </a:r>
           </a:p>
@@ -1120,7 +1117,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-5920-924F-AB52-6E2D5B506641}"/>
+              <c16:uniqueId val="{00000000-A328-9B41-9B19-2F0D0E51BD75}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1153,6 +1150,7 @@
                   <a:defRPr/>
                 </a:pPr>
                 <a:r>
+                  <a:rPr lang="en"/>
                   <a:t>Strain [-]</a:t>
                 </a:r>
               </a:p>
@@ -1186,6 +1184,7 @@
                   <a:defRPr/>
                 </a:pPr>
                 <a:r>
+                  <a:rPr lang="en"/>
                   <a:t>Stress [MPa]</a:t>
                 </a:r>
               </a:p>
@@ -1887,7 +1886,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-A6CB-FA48-BF64-BDF42DB65226}"/>
+              <c16:uniqueId val="{00000000-E0FD-0946-ABB3-37E23FF4423D}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2102,7 +2101,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-C050-9242-8830-54A2E30EEEE3}"/>
+              <c16:uniqueId val="{00000000-4188-F84D-AF21-08561DB81095}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2869,7 +2868,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-1F6E-6A4A-940F-0CE17ACB0C68}"/>
+              <c16:uniqueId val="{00000000-A455-3C4B-906E-6A147B724294}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -3084,7 +3083,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-E19F-BC4D-8BC4-9E85561F7C40}"/>
+              <c16:uniqueId val="{00000000-B692-3E4B-8BDF-9DACDD659500}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -3851,7 +3850,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-276A-4F4F-9DC4-41D6CC6F9BBD}"/>
+              <c16:uniqueId val="{00000000-DDB6-8346-9CC9-281D528B2C1A}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -4066,7 +4065,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-5B7C-554C-98FF-31BA4830057C}"/>
+              <c16:uniqueId val="{00000000-25E9-B649-983B-96A3ACDBA32B}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -4282,7 +4281,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-DB1C-664F-93FA-F55C24EFE209}"/>
+              <c16:uniqueId val="{00000000-0CAF-8541-BEAC-015370CE3872}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -5051,7 +5050,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-075B-9840-B4D8-CEF46E15491B}"/>
+              <c16:uniqueId val="{00000000-2BD9-6C41-91A9-D67C016EF71D}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -5266,7 +5265,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-1AA4-E44B-A066-BAA3BE7020CE}"/>
+              <c16:uniqueId val="{00000000-BC9B-D54F-AA6F-5ACBA0C5B09E}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -5388,7 +5387,8 @@
               <a:defRPr/>
             </a:pPr>
             <a:r>
-              <a:t>C2_l30_th0.5_g2.0_s186</a:t>
+              <a:rPr lang="en"/>
+              <a:t>C2_l30_th0.5_g2.0_s186_t1.5</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -5410,646 +5410,626 @@
             </a:ln>
           </c:spPr>
           <c:marker>
-            <c:symbol val="none"/>
+            <c:spPr>
+              <a:ln>
+                <a:prstDash val="solid"/>
+              </a:ln>
+            </c:spPr>
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'C2_l30_th0.5_g2.0_s186'!$C$2:$C$105</c:f>
+              <c:f>'C2_l30_th0.5_g2.0_s186_t1.5'!$C$2:$C$101</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="104"/>
+                <c:ptCount val="100"/>
                 <c:pt idx="0">
+                  <c:v>1.25E-4</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>2.5000000000000001E-4</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="2">
+                  <c:v>3.7500000000000001E-4</c:v>
+                </c:pt>
+                <c:pt idx="3">
                   <c:v>5.0000000000000001E-4</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="4">
+                  <c:v>6.2500000000000001E-4</c:v>
+                </c:pt>
+                <c:pt idx="5">
                   <c:v>7.5000000000000002E-4</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="6">
+                  <c:v>8.7500000000000002E-4</c:v>
+                </c:pt>
+                <c:pt idx="7">
                   <c:v>1E-3</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="8">
+                  <c:v>1.1249999999999999E-3</c:v>
+                </c:pt>
+                <c:pt idx="9">
                   <c:v>1.25E-3</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="10">
+                  <c:v>1.3749999999999999E-3</c:v>
+                </c:pt>
+                <c:pt idx="11">
                   <c:v>1.5E-3</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="12">
+                  <c:v>1.6249999999999999E-3</c:v>
+                </c:pt>
+                <c:pt idx="13">
                   <c:v>1.75E-3</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="14">
+                  <c:v>1.8749999999999999E-3</c:v>
+                </c:pt>
+                <c:pt idx="15">
                   <c:v>2E-3</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="16">
+                  <c:v>2.1250000000000002E-3</c:v>
+                </c:pt>
+                <c:pt idx="17">
                   <c:v>2.2499999999999998E-3</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="18">
+                  <c:v>2.3749999999999999E-3</c:v>
+                </c:pt>
+                <c:pt idx="19">
                   <c:v>2.5000000000000001E-3</c:v>
                 </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="20">
+                  <c:v>2.6250000000000002E-3</c:v>
+                </c:pt>
+                <c:pt idx="21">
                   <c:v>2.7499999999999998E-3</c:v>
                 </c:pt>
-                <c:pt idx="11">
+                <c:pt idx="22">
+                  <c:v>2.875E-3</c:v>
+                </c:pt>
+                <c:pt idx="23">
                   <c:v>3.0000000000000001E-3</c:v>
                 </c:pt>
-                <c:pt idx="12">
+                <c:pt idx="24">
+                  <c:v>3.1250000000000002E-3</c:v>
+                </c:pt>
+                <c:pt idx="25">
                   <c:v>3.2500000000000012E-3</c:v>
                 </c:pt>
-                <c:pt idx="13">
+                <c:pt idx="26">
+                  <c:v>3.375E-3</c:v>
+                </c:pt>
+                <c:pt idx="27">
                   <c:v>3.5000000000000001E-3</c:v>
                 </c:pt>
-                <c:pt idx="14">
+                <c:pt idx="28">
+                  <c:v>3.6250000000000002E-3</c:v>
+                </c:pt>
+                <c:pt idx="29">
                   <c:v>3.7499999999999999E-3</c:v>
                 </c:pt>
-                <c:pt idx="15">
+                <c:pt idx="30">
+                  <c:v>3.875E-3</c:v>
+                </c:pt>
+                <c:pt idx="31">
                   <c:v>4.0000000000000001E-3</c:v>
                 </c:pt>
-                <c:pt idx="16">
+                <c:pt idx="32">
+                  <c:v>4.1250000000000002E-3</c:v>
+                </c:pt>
+                <c:pt idx="33">
                   <c:v>4.2500000000000003E-3</c:v>
                 </c:pt>
-                <c:pt idx="17">
+                <c:pt idx="34">
+                  <c:v>4.3750000000000004E-3</c:v>
+                </c:pt>
+                <c:pt idx="35">
                   <c:v>4.5000000000000014E-3</c:v>
                 </c:pt>
-                <c:pt idx="18">
+                <c:pt idx="36">
+                  <c:v>4.6250000000000006E-3</c:v>
+                </c:pt>
+                <c:pt idx="37">
                   <c:v>4.7499999999999999E-3</c:v>
                 </c:pt>
-                <c:pt idx="19">
+                <c:pt idx="38">
+                  <c:v>4.875E-3</c:v>
+                </c:pt>
+                <c:pt idx="39">
                   <c:v>5.0000000000000001E-3</c:v>
                 </c:pt>
-                <c:pt idx="20">
+                <c:pt idx="40">
+                  <c:v>5.1250000000000002E-3</c:v>
+                </c:pt>
+                <c:pt idx="41">
                   <c:v>5.2500000000000003E-3</c:v>
                 </c:pt>
-                <c:pt idx="21">
+                <c:pt idx="42">
+                  <c:v>5.3749999999999996E-3</c:v>
+                </c:pt>
+                <c:pt idx="43">
                   <c:v>5.5000000000000014E-3</c:v>
                 </c:pt>
-                <c:pt idx="22">
+                <c:pt idx="44">
+                  <c:v>5.6250000000000007E-3</c:v>
+                </c:pt>
+                <c:pt idx="45">
                   <c:v>5.7499999999999999E-3</c:v>
                 </c:pt>
-                <c:pt idx="23">
+                <c:pt idx="46">
+                  <c:v>5.875E-3</c:v>
+                </c:pt>
+                <c:pt idx="47">
                   <c:v>6.0000000000000001E-3</c:v>
                 </c:pt>
-                <c:pt idx="24">
+                <c:pt idx="48">
+                  <c:v>6.1250000000000002E-3</c:v>
+                </c:pt>
+                <c:pt idx="49">
                   <c:v>6.2500000000000003E-3</c:v>
                 </c:pt>
-                <c:pt idx="25">
+                <c:pt idx="50">
+                  <c:v>6.3749999999999996E-3</c:v>
+                </c:pt>
+                <c:pt idx="51">
                   <c:v>6.5000000000000006E-3</c:v>
                 </c:pt>
-                <c:pt idx="26">
+                <c:pt idx="52">
+                  <c:v>6.6250000000000007E-3</c:v>
+                </c:pt>
+                <c:pt idx="53">
                   <c:v>6.7500000000000008E-3</c:v>
                 </c:pt>
-                <c:pt idx="27">
+                <c:pt idx="54">
+                  <c:v>6.875E-3</c:v>
+                </c:pt>
+                <c:pt idx="55">
                   <c:v>7.0000000000000001E-3</c:v>
                 </c:pt>
-                <c:pt idx="28">
+                <c:pt idx="56">
+                  <c:v>7.1250000000000003E-3</c:v>
+                </c:pt>
+                <c:pt idx="57">
                   <c:v>7.2500000000000004E-3</c:v>
                 </c:pt>
-                <c:pt idx="29">
+                <c:pt idx="58">
+                  <c:v>7.3749999999999996E-3</c:v>
+                </c:pt>
+                <c:pt idx="59">
                   <c:v>7.5000000000000006E-3</c:v>
                 </c:pt>
-                <c:pt idx="30">
+                <c:pt idx="60">
+                  <c:v>7.6250000000000007E-3</c:v>
+                </c:pt>
+                <c:pt idx="61">
                   <c:v>7.7500000000000008E-3</c:v>
                 </c:pt>
-                <c:pt idx="31">
+                <c:pt idx="62">
+                  <c:v>7.8750000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="63">
                   <c:v>8.0000000000000002E-3</c:v>
                 </c:pt>
-                <c:pt idx="32">
+                <c:pt idx="64">
+                  <c:v>8.1250000000000003E-3</c:v>
+                </c:pt>
+                <c:pt idx="65">
                   <c:v>8.2500000000000004E-3</c:v>
                 </c:pt>
-                <c:pt idx="33">
+                <c:pt idx="66">
+                  <c:v>8.3749999999999988E-3</c:v>
+                </c:pt>
+                <c:pt idx="67">
                   <c:v>8.5000000000000006E-3</c:v>
                 </c:pt>
-                <c:pt idx="34">
+                <c:pt idx="68">
+                  <c:v>8.624999999999999E-3</c:v>
+                </c:pt>
+                <c:pt idx="69">
                   <c:v>8.7500000000000008E-3</c:v>
                 </c:pt>
-                <c:pt idx="35">
+                <c:pt idx="70">
+                  <c:v>8.8750000000000009E-3</c:v>
+                </c:pt>
+                <c:pt idx="71">
                   <c:v>9.0000000000000011E-3</c:v>
                 </c:pt>
-                <c:pt idx="36">
+                <c:pt idx="72">
+                  <c:v>9.1250000000000012E-3</c:v>
+                </c:pt>
+                <c:pt idx="73">
                   <c:v>9.2500000000000013E-3</c:v>
                 </c:pt>
-                <c:pt idx="37">
+                <c:pt idx="74">
+                  <c:v>9.3750000000000014E-3</c:v>
+                </c:pt>
+                <c:pt idx="75">
                   <c:v>9.4999999999999998E-3</c:v>
                 </c:pt>
-                <c:pt idx="38">
+                <c:pt idx="76">
+                  <c:v>9.6249999999999999E-3</c:v>
+                </c:pt>
+                <c:pt idx="77">
                   <c:v>9.75E-3</c:v>
                 </c:pt>
-                <c:pt idx="39">
+                <c:pt idx="78">
+                  <c:v>9.8750000000000018E-3</c:v>
+                </c:pt>
+                <c:pt idx="79">
                   <c:v>0.01</c:v>
                 </c:pt>
-                <c:pt idx="40">
+                <c:pt idx="80">
+                  <c:v>1.0125E-2</c:v>
+                </c:pt>
+                <c:pt idx="81">
                   <c:v>1.025E-2</c:v>
                 </c:pt>
-                <c:pt idx="41">
+                <c:pt idx="82">
+                  <c:v>1.0375000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="83">
                   <c:v>1.0500000000000001E-2</c:v>
                 </c:pt>
-                <c:pt idx="42">
+                <c:pt idx="84">
+                  <c:v>1.0625000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="85">
                   <c:v>1.0749999999999999E-2</c:v>
                 </c:pt>
-                <c:pt idx="43">
+                <c:pt idx="86">
+                  <c:v>1.0874999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="87">
                   <c:v>1.0999999999999999E-2</c:v>
                 </c:pt>
-                <c:pt idx="44">
+                <c:pt idx="88">
+                  <c:v>1.1124999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="89">
                   <c:v>1.125E-2</c:v>
                 </c:pt>
-                <c:pt idx="45">
+                <c:pt idx="90">
+                  <c:v>1.1375E-2</c:v>
+                </c:pt>
+                <c:pt idx="91">
                   <c:v>1.15E-2</c:v>
                 </c:pt>
-                <c:pt idx="46">
+                <c:pt idx="92">
+                  <c:v>1.1625E-2</c:v>
+                </c:pt>
+                <c:pt idx="93">
                   <c:v>1.175E-2</c:v>
                 </c:pt>
-                <c:pt idx="47">
+                <c:pt idx="94">
+                  <c:v>1.1875E-2</c:v>
+                </c:pt>
+                <c:pt idx="95">
                   <c:v>1.2E-2</c:v>
                 </c:pt>
-                <c:pt idx="48">
+                <c:pt idx="96">
+                  <c:v>1.2125E-2</c:v>
+                </c:pt>
+                <c:pt idx="97">
                   <c:v>1.225E-2</c:v>
                 </c:pt>
-                <c:pt idx="49">
+                <c:pt idx="98">
+                  <c:v>1.2375000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="99">
                   <c:v>1.2500000000000001E-2</c:v>
-                </c:pt>
-                <c:pt idx="50">
-                  <c:v>1.2749999999999999E-2</c:v>
-                </c:pt>
-                <c:pt idx="51">
-                  <c:v>1.2999999999999999E-2</c:v>
-                </c:pt>
-                <c:pt idx="52">
-                  <c:v>1.325E-2</c:v>
-                </c:pt>
-                <c:pt idx="53">
-                  <c:v>1.35E-2</c:v>
-                </c:pt>
-                <c:pt idx="54">
-                  <c:v>1.375E-2</c:v>
-                </c:pt>
-                <c:pt idx="55">
-                  <c:v>1.4E-2</c:v>
-                </c:pt>
-                <c:pt idx="56">
-                  <c:v>1.4250000000000001E-2</c:v>
-                </c:pt>
-                <c:pt idx="57">
-                  <c:v>1.4500000000000001E-2</c:v>
-                </c:pt>
-                <c:pt idx="58">
-                  <c:v>1.4749999999999999E-2</c:v>
-                </c:pt>
-                <c:pt idx="59">
-                  <c:v>1.4999999999999999E-2</c:v>
-                </c:pt>
-                <c:pt idx="60">
-                  <c:v>1.525E-2</c:v>
-                </c:pt>
-                <c:pt idx="61">
-                  <c:v>1.55E-2</c:v>
-                </c:pt>
-                <c:pt idx="62">
-                  <c:v>1.575E-2</c:v>
-                </c:pt>
-                <c:pt idx="63">
-                  <c:v>1.6E-2</c:v>
-                </c:pt>
-                <c:pt idx="64">
-                  <c:v>1.6250000000000001E-2</c:v>
-                </c:pt>
-                <c:pt idx="65">
-                  <c:v>1.6500000000000001E-2</c:v>
-                </c:pt>
-                <c:pt idx="66">
-                  <c:v>1.6750000000000001E-2</c:v>
-                </c:pt>
-                <c:pt idx="67">
-                  <c:v>1.7000000000000001E-2</c:v>
-                </c:pt>
-                <c:pt idx="68">
-                  <c:v>1.7250000000000001E-2</c:v>
-                </c:pt>
-                <c:pt idx="69">
-                  <c:v>1.7500000000000002E-2</c:v>
-                </c:pt>
-                <c:pt idx="70">
-                  <c:v>1.7749999999999998E-2</c:v>
-                </c:pt>
-                <c:pt idx="71">
-                  <c:v>1.7999999999999999E-2</c:v>
-                </c:pt>
-                <c:pt idx="72">
-                  <c:v>1.8249999999999999E-2</c:v>
-                </c:pt>
-                <c:pt idx="73">
-                  <c:v>1.8499999999999999E-2</c:v>
-                </c:pt>
-                <c:pt idx="74">
-                  <c:v>1.8749999999999999E-2</c:v>
-                </c:pt>
-                <c:pt idx="75">
-                  <c:v>1.9E-2</c:v>
-                </c:pt>
-                <c:pt idx="76">
-                  <c:v>1.925E-2</c:v>
-                </c:pt>
-                <c:pt idx="77">
-                  <c:v>1.95E-2</c:v>
-                </c:pt>
-                <c:pt idx="78">
-                  <c:v>1.975E-2</c:v>
-                </c:pt>
-                <c:pt idx="79">
-                  <c:v>0.02</c:v>
-                </c:pt>
-                <c:pt idx="80">
-                  <c:v>2.0250000000000001E-2</c:v>
-                </c:pt>
-                <c:pt idx="81">
-                  <c:v>2.0500000000000001E-2</c:v>
-                </c:pt>
-                <c:pt idx="82">
-                  <c:v>2.0750000000000001E-2</c:v>
-                </c:pt>
-                <c:pt idx="83">
-                  <c:v>2.1000000000000001E-2</c:v>
-                </c:pt>
-                <c:pt idx="84">
-                  <c:v>2.1250000000000002E-2</c:v>
-                </c:pt>
-                <c:pt idx="85">
-                  <c:v>2.1499999999999998E-2</c:v>
-                </c:pt>
-                <c:pt idx="86">
-                  <c:v>2.1749999999999999E-2</c:v>
-                </c:pt>
-                <c:pt idx="87">
-                  <c:v>2.1999999999999999E-2</c:v>
-                </c:pt>
-                <c:pt idx="88">
-                  <c:v>2.2249999999999999E-2</c:v>
-                </c:pt>
-                <c:pt idx="89">
-                  <c:v>2.2499999999999999E-2</c:v>
-                </c:pt>
-                <c:pt idx="90">
-                  <c:v>2.2749999999999999E-2</c:v>
-                </c:pt>
-                <c:pt idx="91">
-                  <c:v>2.3E-2</c:v>
-                </c:pt>
-                <c:pt idx="92">
-                  <c:v>2.325E-2</c:v>
-                </c:pt>
-                <c:pt idx="93">
-                  <c:v>2.35E-2</c:v>
-                </c:pt>
-                <c:pt idx="94">
-                  <c:v>2.375E-2</c:v>
-                </c:pt>
-                <c:pt idx="95">
-                  <c:v>2.4E-2</c:v>
-                </c:pt>
-                <c:pt idx="96">
-                  <c:v>2.4250000000000001E-2</c:v>
-                </c:pt>
-                <c:pt idx="97">
-                  <c:v>2.4500000000000001E-2</c:v>
-                </c:pt>
-                <c:pt idx="98">
-                  <c:v>2.4750000000000001E-2</c:v>
-                </c:pt>
-                <c:pt idx="99">
-                  <c:v>2.4875000000000001E-2</c:v>
-                </c:pt>
-                <c:pt idx="100">
-                  <c:v>2.4937500000000001E-2</c:v>
-                </c:pt>
-                <c:pt idx="101">
-                  <c:v>2.4962499999999999E-2</c:v>
-                </c:pt>
-                <c:pt idx="102">
-                  <c:v>2.4980833333333341E-2</c:v>
-                </c:pt>
-                <c:pt idx="103">
-                  <c:v>2.5000000000000001E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'C2_l30_th0.5_g2.0_s186'!$D$2:$D$105</c:f>
+              <c:f>'C2_l30_th0.5_g2.0_s186_t1.5'!$D$2:$D$101</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="104"/>
+                <c:ptCount val="100"/>
                 <c:pt idx="0">
+                  <c:v>0.34243600000000002</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>0.68487200000000004</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="2">
+                  <c:v>1.0273060000000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
                   <c:v>1.369742</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="4">
+                  <c:v>1.712178</c:v>
+                </c:pt>
+                <c:pt idx="5">
                   <c:v>2.0546199999999999</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="6">
+                  <c:v>2.3970400000000001</c:v>
+                </c:pt>
+                <c:pt idx="7">
                   <c:v>2.7394799999999999</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="8">
+                  <c:v>3.0819200000000002</c:v>
+                </c:pt>
+                <c:pt idx="9">
                   <c:v>3.4243600000000001</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="10">
+                  <c:v>3.7667999999999999</c:v>
+                </c:pt>
+                <c:pt idx="11">
                   <c:v>4.1092200000000014</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="12">
+                  <c:v>4.4516600000000004</c:v>
+                </c:pt>
+                <c:pt idx="13">
                   <c:v>4.7941000000000003</c:v>
                 </c:pt>
-                <c:pt idx="7">
-                  <c:v>5.4789199999999996</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>6.16282</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>6.8450600000000001</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>7.5254600000000007</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>8.2040199999999999</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>8.8807000000000009</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>9.5556400000000004</c:v>
-                </c:pt>
                 <c:pt idx="14">
-                  <c:v>10.22556</c:v>
+                  <c:v>5.1364999999999998</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>10.883839999999999</c:v>
+                  <c:v>5.4788199999999998</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>11.498860000000001</c:v>
+                  <c:v>5.8202999999999996</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>12.02962</c:v>
+                  <c:v>6.1602599999999992</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>12.527200000000001</c:v>
+                  <c:v>6.4991199999999996</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>13.0016</c:v>
+                  <c:v>6.8380799999999997</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>13.35914</c:v>
+                  <c:v>7.1759199999999996</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>13.481</c:v>
+                  <c:v>7.5126799999999996</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>12.961119999999999</c:v>
+                  <c:v>7.8489000000000004</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>9.86022</c:v>
+                  <c:v>8.1843399999999988</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>4.6885599999999998</c:v>
+                  <c:v>8.5196199999999997</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>0.55010999999999999</c:v>
+                  <c:v>8.8546800000000001</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>0.38787999999999989</c:v>
+                  <c:v>9.1875199999999992</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>0.35615000000000002</c:v>
+                  <c:v>9.5158799999999992</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>0.31994400000000001</c:v>
+                  <c:v>9.8394000000000013</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>0.30068400000000001</c:v>
+                  <c:v>10.1523</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>0.28715200000000002</c:v>
+                  <c:v>10.444879999999999</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>0.27851599999999999</c:v>
+                  <c:v>10.7235</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>0.27592800000000001</c:v>
+                  <c:v>10.982100000000001</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>0.27345599999999998</c:v>
+                  <c:v>11.17958</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>0.27121400000000001</c:v>
+                  <c:v>11.34638</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>0.26779999999999998</c:v>
+                  <c:v>11.5395</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>0.26011000000000001</c:v>
+                  <c:v>11.736739999999999</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>0.25970199999999999</c:v>
+                  <c:v>11.90912</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>0.25752599999999998</c:v>
+                  <c:v>12.058960000000001</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>0.25424999999999998</c:v>
+                  <c:v>12.10286</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>0.24846399999999999</c:v>
+                  <c:v>11.48344</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>0.244114</c:v>
+                  <c:v>9.2386400000000002</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>0.24185200000000001</c:v>
+                  <c:v>5.4325800000000006</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>0.23882</c:v>
+                  <c:v>3.1851400000000001</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>0.23194999999999999</c:v>
+                  <c:v>1.2528300000000001</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>0.22805800000000001</c:v>
+                  <c:v>0.35130800000000001</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>0.22852600000000001</c:v>
+                  <c:v>0.28201999999999999</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>0.218718</c:v>
+                  <c:v>0.1841448</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>0.20804</c:v>
+                  <c:v>0.178172</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>0.20973800000000001</c:v>
+                  <c:v>0.176895</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>0.21227399999999999</c:v>
+                  <c:v>0.17801359999999999</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>0.21532399999999999</c:v>
+                  <c:v>0.18000720000000001</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>0.21758</c:v>
+                  <c:v>0.18159819999999999</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>0.21981800000000001</c:v>
+                  <c:v>0.18309039999999999</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>0.22283</c:v>
+                  <c:v>0.18446699999999999</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>0.22539799999999999</c:v>
+                  <c:v>0.1854836</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>0.22808600000000001</c:v>
+                  <c:v>0.1872144</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>0.231486</c:v>
+                  <c:v>0.1888628</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>0.23378199999999999</c:v>
+                  <c:v>0.19025919999999999</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>0.23208200000000001</c:v>
+                  <c:v>0.18974299999999999</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>0.234766</c:v>
+                  <c:v>0.1892286</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>0.238534</c:v>
+                  <c:v>0.1914698</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>0.24041000000000001</c:v>
+                  <c:v>0.19360140000000001</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>0.243898</c:v>
+                  <c:v>0.1944496</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>0.24765799999999999</c:v>
+                  <c:v>0.1941358</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>0.25114999999999998</c:v>
+                  <c:v>0.1937508</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>0.25454399999999999</c:v>
+                  <c:v>0.19132940000000001</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>0.25834200000000002</c:v>
+                  <c:v>0.18887139999999999</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>0.26212999999999997</c:v>
+                  <c:v>0.18826999999999999</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>0.26592399999999999</c:v>
+                  <c:v>0.1889856</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>0.26965800000000001</c:v>
+                  <c:v>0.18932260000000001</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>0.27343000000000001</c:v>
+                  <c:v>0.1886092</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>0.27696999999999999</c:v>
+                  <c:v>0.188192</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>0.27421800000000002</c:v>
+                  <c:v>0.1880742</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>0.272366</c:v>
+                  <c:v>0.1878428</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>0.27462799999999998</c:v>
+                  <c:v>0.18767600000000001</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>0.27639399999999997</c:v>
+                  <c:v>0.1862038</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>0.27793000000000001</c:v>
+                  <c:v>0.1858378</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>0.27961999999999998</c:v>
+                  <c:v>0.1844092</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>0.28148200000000001</c:v>
+                  <c:v>0.18092359999999999</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>0.28151799999999999</c:v>
+                  <c:v>0.18053900000000001</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>0.280302</c:v>
+                  <c:v>0.17983640000000001</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>0.27861999999999998</c:v>
+                  <c:v>0.18039959999999999</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>0.28189599999999998</c:v>
+                  <c:v>0.18102460000000001</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>0.28521400000000002</c:v>
+                  <c:v>0.18218480000000001</c:v>
                 </c:pt>
                 <c:pt idx="85">
-                  <c:v>0.28673799999999999</c:v>
+                  <c:v>0.182777</c:v>
                 </c:pt>
                 <c:pt idx="86">
-                  <c:v>0.290022</c:v>
+                  <c:v>0.1841332</c:v>
                 </c:pt>
                 <c:pt idx="87">
-                  <c:v>0.29331000000000002</c:v>
+                  <c:v>0.1834356</c:v>
                 </c:pt>
                 <c:pt idx="88">
-                  <c:v>0.29658800000000002</c:v>
+                  <c:v>0.18399019999999999</c:v>
                 </c:pt>
                 <c:pt idx="89">
-                  <c:v>0.29975200000000002</c:v>
+                  <c:v>0.18430640000000001</c:v>
                 </c:pt>
                 <c:pt idx="90">
-                  <c:v>0.30300199999999999</c:v>
+                  <c:v>0.18526380000000001</c:v>
                 </c:pt>
                 <c:pt idx="91">
-                  <c:v>0.30541800000000002</c:v>
+                  <c:v>0.18580859999999999</c:v>
                 </c:pt>
                 <c:pt idx="92">
-                  <c:v>0.30848599999999998</c:v>
+                  <c:v>0.18672079999999999</c:v>
                 </c:pt>
                 <c:pt idx="93">
-                  <c:v>0.31092799999999998</c:v>
+                  <c:v>0.1877838</c:v>
                 </c:pt>
                 <c:pt idx="94">
-                  <c:v>0.31332199999999999</c:v>
+                  <c:v>0.18862019999999999</c:v>
                 </c:pt>
                 <c:pt idx="95">
-                  <c:v>0.312498</c:v>
+                  <c:v>0.19000819999999999</c:v>
                 </c:pt>
                 <c:pt idx="96">
-                  <c:v>0.31360199999999999</c:v>
+                  <c:v>0.1912876</c:v>
                 </c:pt>
                 <c:pt idx="97">
-                  <c:v>0.31228600000000001</c:v>
+                  <c:v>0.19313060000000001</c:v>
                 </c:pt>
                 <c:pt idx="98">
-                  <c:v>0.31337199999999998</c:v>
+                  <c:v>0.19504479999999999</c:v>
                 </c:pt>
                 <c:pt idx="99">
-                  <c:v>0.31497399999999998</c:v>
-                </c:pt>
-                <c:pt idx="100">
-                  <c:v>0.31573400000000001</c:v>
-                </c:pt>
-                <c:pt idx="101">
-                  <c:v>0.31601600000000002</c:v>
-                </c:pt>
-                <c:pt idx="102">
-                  <c:v>0.315996</c:v>
-                </c:pt>
-                <c:pt idx="103">
-                  <c:v>0.31622800000000001</c:v>
+                  <c:v>0.19661819999999999</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6057,7 +6037,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-5DCB-5B4C-B4A8-36A50B7CB4D0}"/>
+              <c16:uniqueId val="{00000000-213F-F24D-BFDF-C740A8832AB5}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -6090,6 +6070,7 @@
                   <a:defRPr/>
                 </a:pPr>
                 <a:r>
+                  <a:rPr lang="en"/>
                   <a:t>Strain [-]</a:t>
                 </a:r>
               </a:p>
@@ -6123,6 +6104,7 @@
                   <a:defRPr/>
                 </a:pPr>
                 <a:r>
+                  <a:rPr lang="en"/>
                   <a:t>Stress [MPa]</a:t>
                 </a:r>
               </a:p>
@@ -6179,6 +6161,7 @@
               <a:defRPr/>
             </a:pPr>
             <a:r>
+              <a:rPr lang="en-US" altLang="ja-JP"/>
               <a:t>10%</a:t>
             </a:r>
           </a:p>
@@ -6205,72 +6188,66 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'C2_l30_th0.5_g2.0_s186'!$C$2:$C$10</c:f>
+              <c:f>'C2_l30_th0.5_g2.0_s186_t1.5'!$C$2:$C$9</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="9"/>
+                <c:ptCount val="8"/>
                 <c:pt idx="0">
+                  <c:v>1.25E-4</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>2.5000000000000001E-4</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="2">
+                  <c:v>3.7500000000000001E-4</c:v>
+                </c:pt>
+                <c:pt idx="3">
                   <c:v>5.0000000000000001E-4</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="4">
+                  <c:v>6.2500000000000001E-4</c:v>
+                </c:pt>
+                <c:pt idx="5">
                   <c:v>7.5000000000000002E-4</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="6">
+                  <c:v>8.7500000000000002E-4</c:v>
+                </c:pt>
+                <c:pt idx="7">
                   <c:v>1E-3</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>1.25E-3</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>1.5E-3</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>1.75E-3</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>2E-3</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>2.2499999999999998E-3</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'C2_l30_th0.5_g2.0_s186'!$D$2:$D$10</c:f>
+              <c:f>'C2_l30_th0.5_g2.0_s186_t1.5'!$D$2:$D$9</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="9"/>
+                <c:ptCount val="8"/>
                 <c:pt idx="0">
+                  <c:v>0.34243600000000002</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>0.68487200000000004</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="2">
+                  <c:v>1.0273060000000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
                   <c:v>1.369742</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="4">
+                  <c:v>1.712178</c:v>
+                </c:pt>
+                <c:pt idx="5">
                   <c:v>2.0546199999999999</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="6">
+                  <c:v>2.3970400000000001</c:v>
+                </c:pt>
+                <c:pt idx="7">
                   <c:v>2.7394799999999999</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>3.4243600000000001</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>4.1092200000000014</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>4.7941000000000003</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>5.4789199999999996</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>6.16282</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6278,7 +6255,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-2136-3941-A94E-B16C131B1C59}"/>
+              <c16:uniqueId val="{00000000-5B2D-034F-80E3-746989879B3A}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -6311,6 +6288,7 @@
                   <a:defRPr/>
                 </a:pPr>
                 <a:r>
+                  <a:rPr lang="en"/>
                   <a:t>Strain [-]</a:t>
                 </a:r>
               </a:p>
@@ -6344,6 +6322,7 @@
                   <a:defRPr/>
                 </a:pPr>
                 <a:r>
+                  <a:rPr lang="en"/>
                   <a:t>Stress [MPa]</a:t>
                 </a:r>
               </a:p>
@@ -7045,7 +7024,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-BB5E-714E-A836-2B6ED8EAB39E}"/>
+              <c16:uniqueId val="{00000000-646C-1E40-8D37-B469D2557400}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -7260,7 +7239,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-9976-294C-8C50-04369AE9514A}"/>
+              <c16:uniqueId val="{00000000-2A1F-4F42-AAED-C95E93906BED}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -7382,6 +7361,7 @@
               <a:defRPr/>
             </a:pPr>
             <a:r>
+              <a:rPr lang="en"/>
               <a:t>C2_l30_th1.0_g2.0_s186_t1.5</a:t>
             </a:r>
           </a:p>
@@ -7404,7 +7384,11 @@
             </a:ln>
           </c:spPr>
           <c:marker>
-            <c:symbol val="none"/>
+            <c:spPr>
+              <a:ln>
+                <a:prstDash val="solid"/>
+              </a:ln>
+            </c:spPr>
           </c:marker>
           <c:xVal>
             <c:numRef>
@@ -8027,7 +8011,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-B577-6547-94CE-C65411500A22}"/>
+              <c16:uniqueId val="{00000000-2550-EA45-9777-DA13CD72E6B7}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -8060,6 +8044,7 @@
                   <a:defRPr/>
                 </a:pPr>
                 <a:r>
+                  <a:rPr lang="en"/>
                   <a:t>Strain [-]</a:t>
                 </a:r>
               </a:p>
@@ -8093,6 +8078,7 @@
                   <a:defRPr/>
                 </a:pPr>
                 <a:r>
+                  <a:rPr lang="en"/>
                   <a:t>Stress [MPa]</a:t>
                 </a:r>
               </a:p>
@@ -8134,7 +8120,7 @@
       <xdr:row>4</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="9321800" cy="2700000"/>
+    <xdr:ext cx="5400000" cy="2700000"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Chart 1">
@@ -8268,7 +8254,7 @@
       <xdr:row>4</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="5400000" cy="2700000"/>
+    <xdr:ext cx="9588500" cy="2984500"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Chart 1">
@@ -8402,7 +8388,7 @@
       <xdr:row>4</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="5400000" cy="2700000"/>
+    <xdr:ext cx="13792200" cy="3048000"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Chart 1">
@@ -9009,12 +8995,12 @@
   <dimension ref="A1:C9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J11" sqref="J11"/>
+      <selection activeCell="B4" sqref="B4:C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14"/>
   <cols>
-    <col min="1" max="1" width="24.83203125" customWidth="1"/>
+    <col min="1" max="1" width="28.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
@@ -9055,10 +9041,10 @@
         <v>22</v>
       </c>
       <c r="B4">
-        <v>13.481</v>
+        <v>12.10286</v>
       </c>
       <c r="C4">
-        <v>2738.508072727273</v>
+        <v>2739.4807999999998</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -9127,9 +9113,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:G101"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="O3" sqref="O3"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14"/>
   <sheetData>
@@ -12009,9 +11993,11 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:G105"/>
+  <dimension ref="A1:G101"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView zoomScale="139" workbookViewId="0">
+      <selection activeCell="C41" sqref="C41"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14"/>
   <sheetData>
@@ -12032,1469 +12018,1413 @@
         <v>15</v>
       </c>
       <c r="G1">
-        <v>13.481</v>
+        <v>12.10286</v>
       </c>
     </row>
     <row r="2" spans="1:7">
       <c r="A2">
-        <v>0.03</v>
+        <v>1.4999999999999999E-2</v>
       </c>
       <c r="B2">
-        <v>34.243600000000001</v>
+        <v>17.1218</v>
       </c>
       <c r="C2">
-        <v>2.5000000000000001E-4</v>
+        <v>1.25E-4</v>
       </c>
       <c r="D2">
-        <v>0.68487200000000004</v>
+        <v>0.34243600000000002</v>
       </c>
       <c r="F2" t="s">
         <v>16</v>
       </c>
       <c r="G2">
-        <v>2738.508072727273</v>
+        <v>2739.4807999999998</v>
       </c>
     </row>
     <row r="3" spans="1:7">
       <c r="A3">
-        <v>0.06</v>
+        <v>0.03</v>
       </c>
       <c r="B3">
-        <v>68.487099999999998</v>
+        <v>34.243600000000001</v>
       </c>
       <c r="C3">
-        <v>5.0000000000000001E-4</v>
+        <v>2.5000000000000001E-4</v>
       </c>
       <c r="D3">
-        <v>1.369742</v>
+        <v>0.68487200000000004</v>
       </c>
     </row>
     <row r="4" spans="1:7">
       <c r="A4">
-        <v>0.09</v>
+        <v>4.4999999999999998E-2</v>
       </c>
       <c r="B4">
-        <v>102.73099999999999</v>
+        <v>51.365299999999998</v>
       </c>
       <c r="C4">
-        <v>7.5000000000000002E-4</v>
+        <v>3.7500000000000001E-4</v>
       </c>
       <c r="D4">
-        <v>2.0546199999999999</v>
+        <v>1.0273060000000001</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5">
-        <v>0.12</v>
+        <v>0.06</v>
       </c>
       <c r="B5">
-        <v>136.97399999999999</v>
+        <v>68.487099999999998</v>
       </c>
       <c r="C5">
-        <v>1E-3</v>
+        <v>5.0000000000000001E-4</v>
       </c>
       <c r="D5">
-        <v>2.7394799999999999</v>
+        <v>1.369742</v>
       </c>
     </row>
     <row r="6" spans="1:7">
       <c r="A6">
-        <v>0.15</v>
+        <v>7.4999999999999997E-2</v>
       </c>
       <c r="B6">
-        <v>171.21799999999999</v>
+        <v>85.608900000000006</v>
       </c>
       <c r="C6">
-        <v>1.25E-3</v>
+        <v>6.2500000000000001E-4</v>
       </c>
       <c r="D6">
-        <v>3.4243600000000001</v>
+        <v>1.712178</v>
       </c>
     </row>
     <row r="7" spans="1:7">
       <c r="A7">
-        <v>0.18</v>
+        <v>0.09</v>
       </c>
       <c r="B7">
-        <v>205.46100000000001</v>
+        <v>102.73099999999999</v>
       </c>
       <c r="C7">
-        <v>1.5E-3</v>
+        <v>7.5000000000000002E-4</v>
       </c>
       <c r="D7">
-        <v>4.1092200000000014</v>
+        <v>2.0546199999999999</v>
       </c>
     </row>
     <row r="8" spans="1:7">
       <c r="A8">
-        <v>0.21</v>
+        <v>0.105</v>
       </c>
       <c r="B8">
-        <v>239.70500000000001</v>
+        <v>119.852</v>
       </c>
       <c r="C8">
-        <v>1.75E-3</v>
+        <v>8.7500000000000002E-4</v>
       </c>
       <c r="D8">
-        <v>4.7941000000000003</v>
+        <v>2.3970400000000001</v>
       </c>
     </row>
     <row r="9" spans="1:7">
       <c r="A9">
-        <v>0.24</v>
+        <v>0.12</v>
       </c>
       <c r="B9">
-        <v>273.94600000000003</v>
+        <v>136.97399999999999</v>
       </c>
       <c r="C9">
-        <v>2E-3</v>
+        <v>1E-3</v>
       </c>
       <c r="D9">
-        <v>5.4789199999999996</v>
+        <v>2.7394799999999999</v>
       </c>
     </row>
     <row r="10" spans="1:7">
       <c r="A10">
-        <v>0.27</v>
+        <v>0.13500000000000001</v>
       </c>
       <c r="B10">
-        <v>308.14100000000002</v>
+        <v>154.096</v>
       </c>
       <c r="C10">
-        <v>2.2499999999999998E-3</v>
+        <v>1.1249999999999999E-3</v>
       </c>
       <c r="D10">
-        <v>6.16282</v>
+        <v>3.0819200000000002</v>
       </c>
     </row>
     <row r="11" spans="1:7">
       <c r="A11">
-        <v>0.3</v>
+        <v>0.15</v>
       </c>
       <c r="B11">
-        <v>342.25299999999999</v>
+        <v>171.21799999999999</v>
       </c>
       <c r="C11">
-        <v>2.5000000000000001E-3</v>
+        <v>1.25E-3</v>
       </c>
       <c r="D11">
-        <v>6.8450600000000001</v>
+        <v>3.4243600000000001</v>
       </c>
     </row>
     <row r="12" spans="1:7">
       <c r="A12">
-        <v>0.33</v>
+        <v>0.16500000000000001</v>
       </c>
       <c r="B12">
-        <v>376.27300000000002</v>
+        <v>188.34</v>
       </c>
       <c r="C12">
-        <v>2.7499999999999998E-3</v>
+        <v>1.3749999999999999E-3</v>
       </c>
       <c r="D12">
-        <v>7.5254600000000007</v>
+        <v>3.7667999999999999</v>
       </c>
     </row>
     <row r="13" spans="1:7">
       <c r="A13">
-        <v>0.36</v>
+        <v>0.18</v>
       </c>
       <c r="B13">
-        <v>410.20100000000002</v>
+        <v>205.46100000000001</v>
       </c>
       <c r="C13">
-        <v>3.0000000000000001E-3</v>
+        <v>1.5E-3</v>
       </c>
       <c r="D13">
-        <v>8.2040199999999999</v>
+        <v>4.1092200000000014</v>
       </c>
     </row>
     <row r="14" spans="1:7">
       <c r="A14">
-        <v>0.39</v>
+        <v>0.19500000000000001</v>
       </c>
       <c r="B14">
-        <v>444.03500000000003</v>
+        <v>222.583</v>
       </c>
       <c r="C14">
-        <v>3.2500000000000012E-3</v>
+        <v>1.6249999999999999E-3</v>
       </c>
       <c r="D14">
-        <v>8.8807000000000009</v>
+        <v>4.4516600000000004</v>
       </c>
     </row>
     <row r="15" spans="1:7">
       <c r="A15">
-        <v>0.42</v>
+        <v>0.21</v>
       </c>
       <c r="B15">
-        <v>477.78199999999998</v>
+        <v>239.70500000000001</v>
       </c>
       <c r="C15">
-        <v>3.5000000000000001E-3</v>
+        <v>1.75E-3</v>
       </c>
       <c r="D15">
-        <v>9.5556400000000004</v>
+        <v>4.7941000000000003</v>
       </c>
     </row>
     <row r="16" spans="1:7">
       <c r="A16">
-        <v>0.45</v>
+        <v>0.22500000000000001</v>
       </c>
       <c r="B16">
-        <v>511.27800000000002</v>
+        <v>256.82499999999999</v>
       </c>
       <c r="C16">
-        <v>3.7499999999999999E-3</v>
+        <v>1.8749999999999999E-3</v>
       </c>
       <c r="D16">
-        <v>10.22556</v>
+        <v>5.1364999999999998</v>
       </c>
     </row>
     <row r="17" spans="1:4">
       <c r="A17">
-        <v>0.48</v>
+        <v>0.24</v>
       </c>
       <c r="B17">
-        <v>544.19200000000001</v>
+        <v>273.94099999999997</v>
       </c>
       <c r="C17">
-        <v>4.0000000000000001E-3</v>
+        <v>2E-3</v>
       </c>
       <c r="D17">
-        <v>10.883839999999999</v>
+        <v>5.4788199999999998</v>
       </c>
     </row>
     <row r="18" spans="1:4">
       <c r="A18">
-        <v>0.51</v>
+        <v>0.255</v>
       </c>
       <c r="B18">
-        <v>574.94299999999998</v>
+        <v>291.01499999999999</v>
       </c>
       <c r="C18">
-        <v>4.2500000000000003E-3</v>
+        <v>2.1250000000000002E-3</v>
       </c>
       <c r="D18">
-        <v>11.498860000000001</v>
+        <v>5.8202999999999996</v>
       </c>
     </row>
     <row r="19" spans="1:4">
       <c r="A19">
-        <v>0.54</v>
+        <v>0.27</v>
       </c>
       <c r="B19">
-        <v>601.48099999999999</v>
+        <v>308.01299999999998</v>
       </c>
       <c r="C19">
-        <v>4.5000000000000014E-3</v>
+        <v>2.2499999999999998E-3</v>
       </c>
       <c r="D19">
-        <v>12.02962</v>
+        <v>6.1602599999999992</v>
       </c>
     </row>
     <row r="20" spans="1:4">
       <c r="A20">
-        <v>0.56999999999999995</v>
+        <v>0.28499999999999998</v>
       </c>
       <c r="B20">
-        <v>626.36</v>
+        <v>324.95600000000002</v>
       </c>
       <c r="C20">
-        <v>4.7499999999999999E-3</v>
+        <v>2.3749999999999999E-3</v>
       </c>
       <c r="D20">
-        <v>12.527200000000001</v>
+        <v>6.4991199999999996</v>
       </c>
     </row>
     <row r="21" spans="1:4">
       <c r="A21">
-        <v>0.6</v>
+        <v>0.3</v>
       </c>
       <c r="B21">
-        <v>650.08000000000004</v>
+        <v>341.904</v>
       </c>
       <c r="C21">
-        <v>5.0000000000000001E-3</v>
+        <v>2.5000000000000001E-3</v>
       </c>
       <c r="D21">
-        <v>13.0016</v>
+        <v>6.8380799999999997</v>
       </c>
     </row>
     <row r="22" spans="1:4">
       <c r="A22">
-        <v>0.63</v>
+        <v>0.315</v>
       </c>
       <c r="B22">
-        <v>667.95699999999999</v>
+        <v>358.79599999999999</v>
       </c>
       <c r="C22">
-        <v>5.2500000000000003E-3</v>
+        <v>2.6250000000000002E-3</v>
       </c>
       <c r="D22">
-        <v>13.35914</v>
+        <v>7.1759199999999996</v>
       </c>
     </row>
     <row r="23" spans="1:4">
       <c r="A23">
-        <v>0.66</v>
+        <v>0.33</v>
       </c>
       <c r="B23">
-        <v>674.05</v>
+        <v>375.63400000000001</v>
       </c>
       <c r="C23">
-        <v>5.5000000000000014E-3</v>
+        <v>2.7499999999999998E-3</v>
       </c>
       <c r="D23">
-        <v>13.481</v>
+        <v>7.5126799999999996</v>
       </c>
     </row>
     <row r="24" spans="1:4">
       <c r="A24">
-        <v>0.69</v>
+        <v>0.34499999999999997</v>
       </c>
       <c r="B24">
-        <v>648.05600000000004</v>
+        <v>392.44499999999999</v>
       </c>
       <c r="C24">
-        <v>5.7499999999999999E-3</v>
+        <v>2.875E-3</v>
       </c>
       <c r="D24">
-        <v>12.961119999999999</v>
+        <v>7.8489000000000004</v>
       </c>
     </row>
     <row r="25" spans="1:4">
       <c r="A25">
-        <v>0.72</v>
+        <v>0.36</v>
       </c>
       <c r="B25">
-        <v>493.01100000000002</v>
+        <v>409.21699999999998</v>
       </c>
       <c r="C25">
-        <v>6.0000000000000001E-3</v>
+        <v>3.0000000000000001E-3</v>
       </c>
       <c r="D25">
-        <v>9.86022</v>
+        <v>8.1843399999999988</v>
       </c>
     </row>
     <row r="26" spans="1:4">
       <c r="A26">
-        <v>0.75</v>
+        <v>0.375</v>
       </c>
       <c r="B26">
-        <v>234.428</v>
+        <v>425.98099999999999</v>
       </c>
       <c r="C26">
-        <v>6.2500000000000003E-3</v>
+        <v>3.1250000000000002E-3</v>
       </c>
       <c r="D26">
-        <v>4.6885599999999998</v>
+        <v>8.5196199999999997</v>
       </c>
     </row>
     <row r="27" spans="1:4">
       <c r="A27">
-        <v>0.78</v>
+        <v>0.39</v>
       </c>
       <c r="B27">
-        <v>27.505500000000001</v>
+        <v>442.73399999999998</v>
       </c>
       <c r="C27">
-        <v>6.5000000000000006E-3</v>
+        <v>3.2500000000000012E-3</v>
       </c>
       <c r="D27">
-        <v>0.55010999999999999</v>
+        <v>8.8546800000000001</v>
       </c>
     </row>
     <row r="28" spans="1:4">
       <c r="A28">
-        <v>0.81</v>
+        <v>0.40500000000000003</v>
       </c>
       <c r="B28">
-        <v>19.393999999999998</v>
+        <v>459.37599999999998</v>
       </c>
       <c r="C28">
-        <v>6.7500000000000008E-3</v>
+        <v>3.375E-3</v>
       </c>
       <c r="D28">
-        <v>0.38787999999999989</v>
+        <v>9.1875199999999992</v>
       </c>
     </row>
     <row r="29" spans="1:4">
       <c r="A29">
-        <v>0.84</v>
+        <v>0.42</v>
       </c>
       <c r="B29">
-        <v>17.807500000000001</v>
+        <v>475.79399999999998</v>
       </c>
       <c r="C29">
-        <v>7.0000000000000001E-3</v>
+        <v>3.5000000000000001E-3</v>
       </c>
       <c r="D29">
-        <v>0.35615000000000002</v>
+        <v>9.5158799999999992</v>
       </c>
     </row>
     <row r="30" spans="1:4">
       <c r="A30">
-        <v>0.87</v>
+        <v>0.435</v>
       </c>
       <c r="B30">
-        <v>15.997199999999999</v>
+        <v>491.97</v>
       </c>
       <c r="C30">
-        <v>7.2500000000000004E-3</v>
+        <v>3.6250000000000002E-3</v>
       </c>
       <c r="D30">
-        <v>0.31994400000000001</v>
+        <v>9.8394000000000013</v>
       </c>
     </row>
     <row r="31" spans="1:4">
       <c r="A31">
-        <v>0.9</v>
+        <v>0.45</v>
       </c>
       <c r="B31">
-        <v>15.0342</v>
+        <v>507.61500000000001</v>
       </c>
       <c r="C31">
-        <v>7.5000000000000006E-3</v>
+        <v>3.7499999999999999E-3</v>
       </c>
       <c r="D31">
-        <v>0.30068400000000001</v>
+        <v>10.1523</v>
       </c>
     </row>
     <row r="32" spans="1:4">
       <c r="A32">
-        <v>0.93</v>
+        <v>0.46500000000000002</v>
       </c>
       <c r="B32">
-        <v>14.3576</v>
+        <v>522.24400000000003</v>
       </c>
       <c r="C32">
-        <v>7.7500000000000008E-3</v>
+        <v>3.875E-3</v>
       </c>
       <c r="D32">
-        <v>0.28715200000000002</v>
+        <v>10.444879999999999</v>
       </c>
     </row>
     <row r="33" spans="1:4">
       <c r="A33">
-        <v>0.96</v>
+        <v>0.48</v>
       </c>
       <c r="B33">
-        <v>13.925800000000001</v>
+        <v>536.17499999999995</v>
       </c>
       <c r="C33">
-        <v>8.0000000000000002E-3</v>
+        <v>4.0000000000000001E-3</v>
       </c>
       <c r="D33">
-        <v>0.27851599999999999</v>
+        <v>10.7235</v>
       </c>
     </row>
     <row r="34" spans="1:4">
       <c r="A34">
-        <v>0.99</v>
+        <v>0.495</v>
       </c>
       <c r="B34">
-        <v>13.7964</v>
+        <v>549.10500000000002</v>
       </c>
       <c r="C34">
-        <v>8.2500000000000004E-3</v>
+        <v>4.1250000000000002E-3</v>
       </c>
       <c r="D34">
-        <v>0.27592800000000001</v>
+        <v>10.982100000000001</v>
       </c>
     </row>
     <row r="35" spans="1:4">
       <c r="A35">
-        <v>1.02</v>
+        <v>0.51</v>
       </c>
       <c r="B35">
-        <v>13.672800000000001</v>
+        <v>558.97900000000004</v>
       </c>
       <c r="C35">
-        <v>8.5000000000000006E-3</v>
+        <v>4.2500000000000003E-3</v>
       </c>
       <c r="D35">
-        <v>0.27345599999999998</v>
+        <v>11.17958</v>
       </c>
     </row>
     <row r="36" spans="1:4">
       <c r="A36">
-        <v>1.05</v>
+        <v>0.52500000000000002</v>
       </c>
       <c r="B36">
-        <v>13.560700000000001</v>
+        <v>567.31899999999996</v>
       </c>
       <c r="C36">
-        <v>8.7500000000000008E-3</v>
+        <v>4.3750000000000004E-3</v>
       </c>
       <c r="D36">
-        <v>0.27121400000000001</v>
+        <v>11.34638</v>
       </c>
     </row>
     <row r="37" spans="1:4">
       <c r="A37">
-        <v>1.08</v>
+        <v>0.54</v>
       </c>
       <c r="B37">
-        <v>13.39</v>
+        <v>576.97500000000002</v>
       </c>
       <c r="C37">
-        <v>9.0000000000000011E-3</v>
+        <v>4.5000000000000014E-3</v>
       </c>
       <c r="D37">
-        <v>0.26779999999999998</v>
+        <v>11.5395</v>
       </c>
     </row>
     <row r="38" spans="1:4">
       <c r="A38">
-        <v>1.1100000000000001</v>
+        <v>0.55500000000000005</v>
       </c>
       <c r="B38">
-        <v>13.0055</v>
+        <v>586.83699999999999</v>
       </c>
       <c r="C38">
-        <v>9.2500000000000013E-3</v>
+        <v>4.6250000000000006E-3</v>
       </c>
       <c r="D38">
-        <v>0.26011000000000001</v>
+        <v>11.736739999999999</v>
       </c>
     </row>
     <row r="39" spans="1:4">
       <c r="A39">
-        <v>1.1399999999999999</v>
+        <v>0.56999999999999995</v>
       </c>
       <c r="B39">
-        <v>12.985099999999999</v>
+        <v>595.45600000000002</v>
       </c>
       <c r="C39">
-        <v>9.4999999999999998E-3</v>
+        <v>4.7499999999999999E-3</v>
       </c>
       <c r="D39">
-        <v>0.25970199999999999</v>
+        <v>11.90912</v>
       </c>
     </row>
     <row r="40" spans="1:4">
       <c r="A40">
-        <v>1.17</v>
+        <v>0.58499999999999996</v>
       </c>
       <c r="B40">
-        <v>12.876300000000001</v>
+        <v>602.94799999999998</v>
       </c>
       <c r="C40">
-        <v>9.75E-3</v>
+        <v>4.875E-3</v>
       </c>
       <c r="D40">
-        <v>0.25752599999999998</v>
+        <v>12.058960000000001</v>
       </c>
     </row>
     <row r="41" spans="1:4">
       <c r="A41">
-        <v>1.2</v>
+        <v>0.6</v>
       </c>
       <c r="B41">
-        <v>12.7125</v>
+        <v>605.14300000000003</v>
       </c>
       <c r="C41">
-        <v>0.01</v>
+        <v>5.0000000000000001E-3</v>
       </c>
       <c r="D41">
-        <v>0.25424999999999998</v>
+        <v>12.10286</v>
       </c>
     </row>
     <row r="42" spans="1:4">
       <c r="A42">
-        <v>1.23</v>
+        <v>0.61499999999999999</v>
       </c>
       <c r="B42">
-        <v>12.4232</v>
+        <v>574.17200000000003</v>
       </c>
       <c r="C42">
-        <v>1.025E-2</v>
+        <v>5.1250000000000002E-3</v>
       </c>
       <c r="D42">
-        <v>0.24846399999999999</v>
+        <v>11.48344</v>
       </c>
     </row>
     <row r="43" spans="1:4">
       <c r="A43">
-        <v>1.26</v>
+        <v>0.63</v>
       </c>
       <c r="B43">
-        <v>12.2057</v>
+        <v>461.93200000000002</v>
       </c>
       <c r="C43">
-        <v>1.0500000000000001E-2</v>
+        <v>5.2500000000000003E-3</v>
       </c>
       <c r="D43">
-        <v>0.244114</v>
+        <v>9.2386400000000002</v>
       </c>
     </row>
     <row r="44" spans="1:4">
       <c r="A44">
-        <v>1.29</v>
+        <v>0.64500000000000002</v>
       </c>
       <c r="B44">
-        <v>12.092599999999999</v>
+        <v>271.62900000000002</v>
       </c>
       <c r="C44">
-        <v>1.0749999999999999E-2</v>
+        <v>5.3749999999999996E-3</v>
       </c>
       <c r="D44">
-        <v>0.24185200000000001</v>
+        <v>5.4325800000000006</v>
       </c>
     </row>
     <row r="45" spans="1:4">
       <c r="A45">
-        <v>1.32</v>
+        <v>0.66</v>
       </c>
       <c r="B45">
-        <v>11.941000000000001</v>
+        <v>159.25700000000001</v>
       </c>
       <c r="C45">
-        <v>1.0999999999999999E-2</v>
+        <v>5.5000000000000014E-3</v>
       </c>
       <c r="D45">
-        <v>0.23882</v>
+        <v>3.1851400000000001</v>
       </c>
     </row>
     <row r="46" spans="1:4">
       <c r="A46">
-        <v>1.35</v>
+        <v>0.67500000000000004</v>
       </c>
       <c r="B46">
-        <v>11.5975</v>
+        <v>62.641500000000001</v>
       </c>
       <c r="C46">
-        <v>1.125E-2</v>
+        <v>5.6250000000000007E-3</v>
       </c>
       <c r="D46">
-        <v>0.23194999999999999</v>
+        <v>1.2528300000000001</v>
       </c>
     </row>
     <row r="47" spans="1:4">
       <c r="A47">
-        <v>1.38</v>
+        <v>0.69</v>
       </c>
       <c r="B47">
-        <v>11.402900000000001</v>
+        <v>17.5654</v>
       </c>
       <c r="C47">
-        <v>1.15E-2</v>
+        <v>5.7499999999999999E-3</v>
       </c>
       <c r="D47">
-        <v>0.22805800000000001</v>
+        <v>0.35130800000000001</v>
       </c>
     </row>
     <row r="48" spans="1:4">
       <c r="A48">
-        <v>1.41</v>
+        <v>0.70499999999999996</v>
       </c>
       <c r="B48">
-        <v>11.426299999999999</v>
+        <v>14.101000000000001</v>
       </c>
       <c r="C48">
-        <v>1.175E-2</v>
+        <v>5.875E-3</v>
       </c>
       <c r="D48">
-        <v>0.22852600000000001</v>
+        <v>0.28201999999999999</v>
       </c>
     </row>
     <row r="49" spans="1:4">
       <c r="A49">
-        <v>1.44</v>
+        <v>0.72</v>
       </c>
       <c r="B49">
-        <v>10.9359</v>
+        <v>9.2072400000000005</v>
       </c>
       <c r="C49">
-        <v>1.2E-2</v>
+        <v>6.0000000000000001E-3</v>
       </c>
       <c r="D49">
-        <v>0.218718</v>
+        <v>0.1841448</v>
       </c>
     </row>
     <row r="50" spans="1:4">
       <c r="A50">
-        <v>1.47</v>
+        <v>0.73499999999999999</v>
       </c>
       <c r="B50">
-        <v>10.401999999999999</v>
+        <v>8.9085999999999999</v>
       </c>
       <c r="C50">
-        <v>1.225E-2</v>
+        <v>6.1250000000000002E-3</v>
       </c>
       <c r="D50">
-        <v>0.20804</v>
+        <v>0.178172</v>
       </c>
     </row>
     <row r="51" spans="1:4">
       <c r="A51">
-        <v>1.5</v>
+        <v>0.75</v>
       </c>
       <c r="B51">
-        <v>10.4869</v>
+        <v>8.8447499999999994</v>
       </c>
       <c r="C51">
-        <v>1.2500000000000001E-2</v>
+        <v>6.2500000000000003E-3</v>
       </c>
       <c r="D51">
-        <v>0.20973800000000001</v>
+        <v>0.176895</v>
       </c>
     </row>
     <row r="52" spans="1:4">
       <c r="A52">
-        <v>1.53</v>
+        <v>0.76500000000000001</v>
       </c>
       <c r="B52">
-        <v>10.6137</v>
+        <v>8.9006799999999995</v>
       </c>
       <c r="C52">
-        <v>1.2749999999999999E-2</v>
+        <v>6.3749999999999996E-3</v>
       </c>
       <c r="D52">
-        <v>0.21227399999999999</v>
+        <v>0.17801359999999999</v>
       </c>
     </row>
     <row r="53" spans="1:4">
       <c r="A53">
-        <v>1.56</v>
+        <v>0.78</v>
       </c>
       <c r="B53">
-        <v>10.7662</v>
+        <v>9.0003600000000006</v>
       </c>
       <c r="C53">
-        <v>1.2999999999999999E-2</v>
+        <v>6.5000000000000006E-3</v>
       </c>
       <c r="D53">
-        <v>0.21532399999999999</v>
+        <v>0.18000720000000001</v>
       </c>
     </row>
     <row r="54" spans="1:4">
       <c r="A54">
-        <v>1.59</v>
+        <v>0.79500000000000004</v>
       </c>
       <c r="B54">
-        <v>10.879</v>
+        <v>9.0799099999999999</v>
       </c>
       <c r="C54">
-        <v>1.325E-2</v>
+        <v>6.6250000000000007E-3</v>
       </c>
       <c r="D54">
-        <v>0.21758</v>
+        <v>0.18159819999999999</v>
       </c>
     </row>
     <row r="55" spans="1:4">
       <c r="A55">
-        <v>1.62</v>
+        <v>0.81</v>
       </c>
       <c r="B55">
-        <v>10.9909</v>
+        <v>9.1545199999999998</v>
       </c>
       <c r="C55">
-        <v>1.35E-2</v>
+        <v>6.7500000000000008E-3</v>
       </c>
       <c r="D55">
-        <v>0.21981800000000001</v>
+        <v>0.18309039999999999</v>
       </c>
     </row>
     <row r="56" spans="1:4">
       <c r="A56">
-        <v>1.65</v>
+        <v>0.82499999999999996</v>
       </c>
       <c r="B56">
-        <v>11.141500000000001</v>
+        <v>9.2233499999999999</v>
       </c>
       <c r="C56">
-        <v>1.375E-2</v>
+        <v>6.875E-3</v>
       </c>
       <c r="D56">
-        <v>0.22283</v>
+        <v>0.18446699999999999</v>
       </c>
     </row>
     <row r="57" spans="1:4">
       <c r="A57">
-        <v>1.68</v>
+        <v>0.84</v>
       </c>
       <c r="B57">
-        <v>11.2699</v>
+        <v>9.2741799999999994</v>
       </c>
       <c r="C57">
-        <v>1.4E-2</v>
+        <v>7.0000000000000001E-3</v>
       </c>
       <c r="D57">
-        <v>0.22539799999999999</v>
+        <v>0.1854836</v>
       </c>
     </row>
     <row r="58" spans="1:4">
       <c r="A58">
-        <v>1.71</v>
+        <v>0.85499999999999998</v>
       </c>
       <c r="B58">
-        <v>11.404299999999999</v>
+        <v>9.3607200000000006</v>
       </c>
       <c r="C58">
-        <v>1.4250000000000001E-2</v>
+        <v>7.1250000000000003E-3</v>
       </c>
       <c r="D58">
-        <v>0.22808600000000001</v>
+        <v>0.1872144</v>
       </c>
     </row>
     <row r="59" spans="1:4">
       <c r="A59">
-        <v>1.74</v>
+        <v>0.87</v>
       </c>
       <c r="B59">
-        <v>11.574299999999999</v>
+        <v>9.4431399999999996</v>
       </c>
       <c r="C59">
-        <v>1.4500000000000001E-2</v>
+        <v>7.2500000000000004E-3</v>
       </c>
       <c r="D59">
-        <v>0.231486</v>
+        <v>0.1888628</v>
       </c>
     </row>
     <row r="60" spans="1:4">
       <c r="A60">
-        <v>1.77</v>
+        <v>0.88500000000000001</v>
       </c>
       <c r="B60">
-        <v>11.6891</v>
+        <v>9.5129599999999996</v>
       </c>
       <c r="C60">
-        <v>1.4749999999999999E-2</v>
+        <v>7.3749999999999996E-3</v>
       </c>
       <c r="D60">
-        <v>0.23378199999999999</v>
+        <v>0.19025919999999999</v>
       </c>
     </row>
     <row r="61" spans="1:4">
       <c r="A61">
-        <v>1.8</v>
+        <v>0.9</v>
       </c>
       <c r="B61">
-        <v>11.604100000000001</v>
+        <v>9.4871499999999997</v>
       </c>
       <c r="C61">
-        <v>1.4999999999999999E-2</v>
+        <v>7.5000000000000006E-3</v>
       </c>
       <c r="D61">
-        <v>0.23208200000000001</v>
+        <v>0.18974299999999999</v>
       </c>
     </row>
     <row r="62" spans="1:4">
       <c r="A62">
-        <v>1.83</v>
+        <v>0.91500000000000004</v>
       </c>
       <c r="B62">
-        <v>11.738300000000001</v>
+        <v>9.46143</v>
       </c>
       <c r="C62">
-        <v>1.525E-2</v>
+        <v>7.6250000000000007E-3</v>
       </c>
       <c r="D62">
-        <v>0.234766</v>
+        <v>0.1892286</v>
       </c>
     </row>
     <row r="63" spans="1:4">
       <c r="A63">
-        <v>1.86</v>
+        <v>0.93</v>
       </c>
       <c r="B63">
-        <v>11.9267</v>
+        <v>9.5734899999999996</v>
       </c>
       <c r="C63">
-        <v>1.55E-2</v>
+        <v>7.7500000000000008E-3</v>
       </c>
       <c r="D63">
-        <v>0.238534</v>
+        <v>0.1914698</v>
       </c>
     </row>
     <row r="64" spans="1:4">
       <c r="A64">
-        <v>1.89</v>
+        <v>0.94499999999999995</v>
       </c>
       <c r="B64">
-        <v>12.0205</v>
+        <v>9.6800700000000006</v>
       </c>
       <c r="C64">
-        <v>1.575E-2</v>
+        <v>7.8750000000000001E-3</v>
       </c>
       <c r="D64">
-        <v>0.24041000000000001</v>
+        <v>0.19360140000000001</v>
       </c>
     </row>
     <row r="65" spans="1:4">
       <c r="A65">
-        <v>1.92</v>
+        <v>0.96</v>
       </c>
       <c r="B65">
-        <v>12.194900000000001</v>
+        <v>9.7224799999999991</v>
       </c>
       <c r="C65">
-        <v>1.6E-2</v>
+        <v>8.0000000000000002E-3</v>
       </c>
       <c r="D65">
-        <v>0.243898</v>
+        <v>0.1944496</v>
       </c>
     </row>
     <row r="66" spans="1:4">
       <c r="A66">
-        <v>1.95</v>
+        <v>0.97499999999999998</v>
       </c>
       <c r="B66">
-        <v>12.382899999999999</v>
+        <v>9.7067899999999998</v>
       </c>
       <c r="C66">
-        <v>1.6250000000000001E-2</v>
+        <v>8.1250000000000003E-3</v>
       </c>
       <c r="D66">
-        <v>0.24765799999999999</v>
+        <v>0.1941358</v>
       </c>
     </row>
     <row r="67" spans="1:4">
       <c r="A67">
-        <v>1.98</v>
+        <v>0.99</v>
       </c>
       <c r="B67">
-        <v>12.557499999999999</v>
+        <v>9.6875400000000003</v>
       </c>
       <c r="C67">
-        <v>1.6500000000000001E-2</v>
+        <v>8.2500000000000004E-3</v>
       </c>
       <c r="D67">
-        <v>0.25114999999999998</v>
+        <v>0.1937508</v>
       </c>
     </row>
     <row r="68" spans="1:4">
       <c r="A68">
-        <v>2.0099999999999998</v>
+        <v>1.0049999999999999</v>
       </c>
       <c r="B68">
-        <v>12.7272</v>
+        <v>9.5664700000000007</v>
       </c>
       <c r="C68">
-        <v>1.6750000000000001E-2</v>
+        <v>8.3749999999999988E-3</v>
       </c>
       <c r="D68">
-        <v>0.25454399999999999</v>
+        <v>0.19132940000000001</v>
       </c>
     </row>
     <row r="69" spans="1:4">
       <c r="A69">
-        <v>2.04</v>
+        <v>1.02</v>
       </c>
       <c r="B69">
-        <v>12.9171</v>
+        <v>9.4435699999999994</v>
       </c>
       <c r="C69">
-        <v>1.7000000000000001E-2</v>
+        <v>8.5000000000000006E-3</v>
       </c>
       <c r="D69">
-        <v>0.25834200000000002</v>
+        <v>0.18887139999999999</v>
       </c>
     </row>
     <row r="70" spans="1:4">
       <c r="A70">
-        <v>2.0699999999999998</v>
+        <v>1.0349999999999999</v>
       </c>
       <c r="B70">
-        <v>13.1065</v>
+        <v>9.4135000000000009</v>
       </c>
       <c r="C70">
-        <v>1.7250000000000001E-2</v>
+        <v>8.624999999999999E-3</v>
       </c>
       <c r="D70">
-        <v>0.26212999999999997</v>
+        <v>0.18826999999999999</v>
       </c>
     </row>
     <row r="71" spans="1:4">
       <c r="A71">
-        <v>2.1</v>
+        <v>1.05</v>
       </c>
       <c r="B71">
-        <v>13.296200000000001</v>
+        <v>9.4492799999999999</v>
       </c>
       <c r="C71">
-        <v>1.7500000000000002E-2</v>
+        <v>8.7500000000000008E-3</v>
       </c>
       <c r="D71">
-        <v>0.26592399999999999</v>
+        <v>0.1889856</v>
       </c>
     </row>
     <row r="72" spans="1:4">
       <c r="A72">
-        <v>2.13</v>
+        <v>1.0649999999999999</v>
       </c>
       <c r="B72">
-        <v>13.482900000000001</v>
+        <v>9.4661299999999997</v>
       </c>
       <c r="C72">
-        <v>1.7749999999999998E-2</v>
+        <v>8.8750000000000009E-3</v>
       </c>
       <c r="D72">
-        <v>0.26965800000000001</v>
+        <v>0.18932260000000001</v>
       </c>
     </row>
     <row r="73" spans="1:4">
       <c r="A73">
-        <v>2.16</v>
+        <v>1.08</v>
       </c>
       <c r="B73">
-        <v>13.6715</v>
+        <v>9.4304600000000001</v>
       </c>
       <c r="C73">
-        <v>1.7999999999999999E-2</v>
+        <v>9.0000000000000011E-3</v>
       </c>
       <c r="D73">
-        <v>0.27343000000000001</v>
+        <v>0.1886092</v>
       </c>
     </row>
     <row r="74" spans="1:4">
       <c r="A74">
-        <v>2.19</v>
+        <v>1.095</v>
       </c>
       <c r="B74">
-        <v>13.8485</v>
+        <v>9.4095999999999993</v>
       </c>
       <c r="C74">
-        <v>1.8249999999999999E-2</v>
+        <v>9.1250000000000012E-3</v>
       </c>
       <c r="D74">
-        <v>0.27696999999999999</v>
+        <v>0.188192</v>
       </c>
     </row>
     <row r="75" spans="1:4">
       <c r="A75">
-        <v>2.2200000000000002</v>
+        <v>1.1100000000000001</v>
       </c>
       <c r="B75">
-        <v>13.710900000000001</v>
+        <v>9.4037100000000002</v>
       </c>
       <c r="C75">
-        <v>1.8499999999999999E-2</v>
+        <v>9.2500000000000013E-3</v>
       </c>
       <c r="D75">
-        <v>0.27421800000000002</v>
+        <v>0.1880742</v>
       </c>
     </row>
     <row r="76" spans="1:4">
       <c r="A76">
-        <v>2.25</v>
+        <v>1.125</v>
       </c>
       <c r="B76">
-        <v>13.6183</v>
+        <v>9.3921399999999995</v>
       </c>
       <c r="C76">
-        <v>1.8749999999999999E-2</v>
+        <v>9.3750000000000014E-3</v>
       </c>
       <c r="D76">
-        <v>0.272366</v>
+        <v>0.1878428</v>
       </c>
     </row>
     <row r="77" spans="1:4">
       <c r="A77">
-        <v>2.2799999999999998</v>
+        <v>1.1399999999999999</v>
       </c>
       <c r="B77">
-        <v>13.731400000000001</v>
+        <v>9.3838000000000008</v>
       </c>
       <c r="C77">
-        <v>1.9E-2</v>
+        <v>9.4999999999999998E-3</v>
       </c>
       <c r="D77">
-        <v>0.27462799999999998</v>
+        <v>0.18767600000000001</v>
       </c>
     </row>
     <row r="78" spans="1:4">
       <c r="A78">
-        <v>2.31</v>
+        <v>1.155</v>
       </c>
       <c r="B78">
-        <v>13.819699999999999</v>
+        <v>9.3101900000000004</v>
       </c>
       <c r="C78">
-        <v>1.925E-2</v>
+        <v>9.6249999999999999E-3</v>
       </c>
       <c r="D78">
-        <v>0.27639399999999997</v>
+        <v>0.1862038</v>
       </c>
     </row>
     <row r="79" spans="1:4">
       <c r="A79">
-        <v>2.34</v>
+        <v>1.17</v>
       </c>
       <c r="B79">
-        <v>13.8965</v>
+        <v>9.2918900000000004</v>
       </c>
       <c r="C79">
-        <v>1.95E-2</v>
+        <v>9.75E-3</v>
       </c>
       <c r="D79">
-        <v>0.27793000000000001</v>
+        <v>0.1858378</v>
       </c>
     </row>
     <row r="80" spans="1:4">
       <c r="A80">
-        <v>2.37</v>
+        <v>1.1850000000000001</v>
       </c>
       <c r="B80">
-        <v>13.981</v>
+        <v>9.2204599999999992</v>
       </c>
       <c r="C80">
-        <v>1.975E-2</v>
+        <v>9.8750000000000018E-3</v>
       </c>
       <c r="D80">
-        <v>0.27961999999999998</v>
+        <v>0.1844092</v>
       </c>
     </row>
     <row r="81" spans="1:4">
       <c r="A81">
-        <v>2.4</v>
+        <v>1.2</v>
       </c>
       <c r="B81">
-        <v>14.0741</v>
+        <v>9.0461799999999997</v>
       </c>
       <c r="C81">
-        <v>0.02</v>
+        <v>0.01</v>
       </c>
       <c r="D81">
-        <v>0.28148200000000001</v>
+        <v>0.18092359999999999</v>
       </c>
     </row>
     <row r="82" spans="1:4">
       <c r="A82">
-        <v>2.4300000000000002</v>
+        <v>1.2150000000000001</v>
       </c>
       <c r="B82">
-        <v>14.075900000000001</v>
+        <v>9.0269499999999994</v>
       </c>
       <c r="C82">
-        <v>2.0250000000000001E-2</v>
+        <v>1.0125E-2</v>
       </c>
       <c r="D82">
-        <v>0.28151799999999999</v>
+        <v>0.18053900000000001</v>
       </c>
     </row>
     <row r="83" spans="1:4">
       <c r="A83">
-        <v>2.46</v>
+        <v>1.23</v>
       </c>
       <c r="B83">
-        <v>14.0151</v>
+        <v>8.9918200000000006</v>
       </c>
       <c r="C83">
-        <v>2.0500000000000001E-2</v>
+        <v>1.025E-2</v>
       </c>
       <c r="D83">
-        <v>0.280302</v>
+        <v>0.17983640000000001</v>
       </c>
     </row>
     <row r="84" spans="1:4">
       <c r="A84">
-        <v>2.4900000000000002</v>
+        <v>1.2450000000000001</v>
       </c>
       <c r="B84">
-        <v>13.930999999999999</v>
+        <v>9.0199800000000003</v>
       </c>
       <c r="C84">
-        <v>2.0750000000000001E-2</v>
+        <v>1.0375000000000001E-2</v>
       </c>
       <c r="D84">
-        <v>0.27861999999999998</v>
+        <v>0.18039959999999999</v>
       </c>
     </row>
     <row r="85" spans="1:4">
       <c r="A85">
-        <v>2.52</v>
+        <v>1.26</v>
       </c>
       <c r="B85">
-        <v>14.094799999999999</v>
+        <v>9.0512300000000003</v>
       </c>
       <c r="C85">
-        <v>2.1000000000000001E-2</v>
+        <v>1.0500000000000001E-2</v>
       </c>
       <c r="D85">
-        <v>0.28189599999999998</v>
+        <v>0.18102460000000001</v>
       </c>
     </row>
     <row r="86" spans="1:4">
       <c r="A86">
-        <v>2.5499999999999998</v>
+        <v>1.2749999999999999</v>
       </c>
       <c r="B86">
-        <v>14.2607</v>
+        <v>9.1092399999999998</v>
       </c>
       <c r="C86">
-        <v>2.1250000000000002E-2</v>
+        <v>1.0625000000000001E-2</v>
       </c>
       <c r="D86">
-        <v>0.28521400000000002</v>
+        <v>0.18218480000000001</v>
       </c>
     </row>
     <row r="87" spans="1:4">
       <c r="A87">
-        <v>2.58</v>
+        <v>1.29</v>
       </c>
       <c r="B87">
-        <v>14.3369</v>
+        <v>9.1388499999999997</v>
       </c>
       <c r="C87">
-        <v>2.1499999999999998E-2</v>
+        <v>1.0749999999999999E-2</v>
       </c>
       <c r="D87">
-        <v>0.28673799999999999</v>
+        <v>0.182777</v>
       </c>
     </row>
     <row r="88" spans="1:4">
       <c r="A88">
-        <v>2.61</v>
+        <v>1.3049999999999999</v>
       </c>
       <c r="B88">
-        <v>14.501099999999999</v>
+        <v>9.2066599999999994</v>
       </c>
       <c r="C88">
-        <v>2.1749999999999999E-2</v>
+        <v>1.0874999999999999E-2</v>
       </c>
       <c r="D88">
-        <v>0.290022</v>
+        <v>0.1841332</v>
       </c>
     </row>
     <row r="89" spans="1:4">
       <c r="A89">
-        <v>2.64</v>
+        <v>1.32</v>
       </c>
       <c r="B89">
-        <v>14.6655</v>
+        <v>9.17178</v>
       </c>
       <c r="C89">
-        <v>2.1999999999999999E-2</v>
+        <v>1.0999999999999999E-2</v>
       </c>
       <c r="D89">
-        <v>0.29331000000000002</v>
+        <v>0.1834356</v>
       </c>
     </row>
     <row r="90" spans="1:4">
       <c r="A90">
-        <v>2.67</v>
+        <v>1.335</v>
       </c>
       <c r="B90">
-        <v>14.8294</v>
+        <v>9.1995100000000001</v>
       </c>
       <c r="C90">
-        <v>2.2249999999999999E-2</v>
+        <v>1.1124999999999999E-2</v>
       </c>
       <c r="D90">
-        <v>0.29658800000000002</v>
+        <v>0.18399019999999999</v>
       </c>
     </row>
     <row r="91" spans="1:4">
       <c r="A91">
-        <v>2.7</v>
+        <v>1.35</v>
       </c>
       <c r="B91">
-        <v>14.9876</v>
+        <v>9.2153200000000002</v>
       </c>
       <c r="C91">
-        <v>2.2499999999999999E-2</v>
+        <v>1.125E-2</v>
       </c>
       <c r="D91">
-        <v>0.29975200000000002</v>
+        <v>0.18430640000000001</v>
       </c>
     </row>
     <row r="92" spans="1:4">
       <c r="A92">
-        <v>2.73</v>
+        <v>1.365</v>
       </c>
       <c r="B92">
-        <v>15.1501</v>
+        <v>9.2631899999999998</v>
       </c>
       <c r="C92">
-        <v>2.2749999999999999E-2</v>
+        <v>1.1375E-2</v>
       </c>
       <c r="D92">
-        <v>0.30300199999999999</v>
+        <v>0.18526380000000001</v>
       </c>
     </row>
     <row r="93" spans="1:4">
       <c r="A93">
-        <v>2.76</v>
+        <v>1.38</v>
       </c>
       <c r="B93">
-        <v>15.270899999999999</v>
+        <v>9.2904300000000006</v>
       </c>
       <c r="C93">
-        <v>2.3E-2</v>
+        <v>1.15E-2</v>
       </c>
       <c r="D93">
-        <v>0.30541800000000002</v>
+        <v>0.18580859999999999</v>
       </c>
     </row>
     <row r="94" spans="1:4">
       <c r="A94">
-        <v>2.79</v>
+        <v>1.395</v>
       </c>
       <c r="B94">
-        <v>15.424300000000001</v>
+        <v>9.3360400000000006</v>
       </c>
       <c r="C94">
-        <v>2.325E-2</v>
+        <v>1.1625E-2</v>
       </c>
       <c r="D94">
-        <v>0.30848599999999998</v>
+        <v>0.18672079999999999</v>
       </c>
     </row>
     <row r="95" spans="1:4">
       <c r="A95">
-        <v>2.82</v>
+        <v>1.41</v>
       </c>
       <c r="B95">
-        <v>15.5464</v>
+        <v>9.3891899999999993</v>
       </c>
       <c r="C95">
-        <v>2.35E-2</v>
+        <v>1.175E-2</v>
       </c>
       <c r="D95">
-        <v>0.31092799999999998</v>
+        <v>0.1877838</v>
       </c>
     </row>
     <row r="96" spans="1:4">
       <c r="A96">
-        <v>2.85</v>
+        <v>1.425</v>
       </c>
       <c r="B96">
-        <v>15.6661</v>
+        <v>9.4310100000000006</v>
       </c>
       <c r="C96">
-        <v>2.375E-2</v>
+        <v>1.1875E-2</v>
       </c>
       <c r="D96">
-        <v>0.31332199999999999</v>
+        <v>0.18862019999999999</v>
       </c>
     </row>
     <row r="97" spans="1:4">
       <c r="A97">
-        <v>2.88</v>
+        <v>1.44</v>
       </c>
       <c r="B97">
-        <v>15.6249</v>
+        <v>9.5004100000000005</v>
       </c>
       <c r="C97">
-        <v>2.4E-2</v>
+        <v>1.2E-2</v>
       </c>
       <c r="D97">
-        <v>0.312498</v>
+        <v>0.19000819999999999</v>
       </c>
     </row>
     <row r="98" spans="1:4">
       <c r="A98">
-        <v>2.91</v>
+        <v>1.4550000000000001</v>
       </c>
       <c r="B98">
-        <v>15.680099999999999</v>
+        <v>9.5643799999999999</v>
       </c>
       <c r="C98">
-        <v>2.4250000000000001E-2</v>
+        <v>1.2125E-2</v>
       </c>
       <c r="D98">
-        <v>0.31360199999999999</v>
+        <v>0.1912876</v>
       </c>
     </row>
     <row r="99" spans="1:4">
       <c r="A99">
-        <v>2.94</v>
+        <v>1.47</v>
       </c>
       <c r="B99">
-        <v>15.6143</v>
+        <v>9.6565300000000001</v>
       </c>
       <c r="C99">
-        <v>2.4500000000000001E-2</v>
+        <v>1.225E-2</v>
       </c>
       <c r="D99">
-        <v>0.31228600000000001</v>
+        <v>0.19313060000000001</v>
       </c>
     </row>
     <row r="100" spans="1:4">
       <c r="A100">
-        <v>2.97</v>
+        <v>1.4850000000000001</v>
       </c>
       <c r="B100">
-        <v>15.6686</v>
+        <v>9.7522400000000005</v>
       </c>
       <c r="C100">
-        <v>2.4750000000000001E-2</v>
+        <v>1.2375000000000001E-2</v>
       </c>
       <c r="D100">
-        <v>0.31337199999999998</v>
+        <v>0.19504479999999999</v>
       </c>
     </row>
     <row r="101" spans="1:4">
       <c r="A101">
-        <v>2.9849999999999999</v>
+        <v>1.5</v>
       </c>
       <c r="B101">
-        <v>15.748699999999999</v>
+        <v>9.8309099999999994</v>
       </c>
       <c r="C101">
-        <v>2.4875000000000001E-2</v>
+        <v>1.2500000000000001E-2</v>
       </c>
       <c r="D101">
-        <v>0.31497399999999998</v>
-      </c>
-    </row>
-    <row r="102" spans="1:4">
-      <c r="A102">
-        <v>2.9925000000000002</v>
-      </c>
-      <c r="B102">
-        <v>15.7867</v>
-      </c>
-      <c r="C102">
-        <v>2.4937500000000001E-2</v>
-      </c>
-      <c r="D102">
-        <v>0.31573400000000001</v>
-      </c>
-    </row>
-    <row r="103" spans="1:4">
-      <c r="A103">
-        <v>2.9954999999999998</v>
-      </c>
-      <c r="B103">
-        <v>15.800800000000001</v>
-      </c>
-      <c r="C103">
-        <v>2.4962499999999999E-2</v>
-      </c>
-      <c r="D103">
-        <v>0.31601600000000002</v>
-      </c>
-    </row>
-    <row r="104" spans="1:4">
-      <c r="A104">
-        <v>2.9977</v>
-      </c>
-      <c r="B104">
-        <v>15.799799999999999</v>
-      </c>
-      <c r="C104">
-        <v>2.4980833333333341E-2</v>
-      </c>
-      <c r="D104">
-        <v>0.315996</v>
-      </c>
-    </row>
-    <row r="105" spans="1:4">
-      <c r="A105">
-        <v>3</v>
-      </c>
-      <c r="B105">
-        <v>15.811400000000001</v>
-      </c>
-      <c r="C105">
-        <v>2.5000000000000001E-2</v>
-      </c>
-      <c r="D105">
-        <v>0.31622800000000001</v>
+        <v>0.19661819999999999</v>
       </c>
     </row>
   </sheetData>
@@ -14949,7 +14879,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:G101"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="A36" sqref="A36"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14"/>
   <sheetData>
